--- a/experiments/241009/report_Hy_mix2.xlsx
+++ b/experiments/241009/report_Hy_mix2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">Mass</t>
   </si>
@@ -80,100 +80,97 @@
     <t xml:space="preserve">HMDB0000820|HMDB0000863</t>
   </si>
   <si>
-    <t xml:space="preserve">C2H6N2O|C4H10O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methylurea|2-Butanol|1-Butanol|Isobutanol|2-Methylpropan-2-ol|Acetylhydrazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0254670|HMDB0011469|HMDB0004327|HMDB0006006|HMDB0031456|HMDB0060428</t>
+    <t xml:space="preserve">C4H10O|C2H6N2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isobutanol|2-Butanol|Methylurea|1-Butanol|2-Methylpropan-2-ol|Acetylhydrazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0006006|HMDB0011469|HMDB0254670|HMDB0004327|HMDB0031456|HMDB0060428</t>
   </si>
   <si>
     <t xml:space="preserve">C5H12O|C3H8N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">Neopentyl alcohol|3-pentanol|3-Methyl-2-butanol|1-Pentanol|(S)-2-Methyl-1-butanol|2-Pentanol|Isopentanol|2-Methyl-2-butanol|Ethylurea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0255527|HMDB0303831|HMDB0033777|HMDB0013036|HMDB0031527|HMDB0031599|HMDB0006007|HMDB0033772|HMDB0252088</t>
+    <t xml:space="preserve">Isopentanol|1-Pentanol|Neopentyl alcohol|2-Pentanol|3-Methyl-2-butanol|(S)-2-Methyl-1-butanol|3-pentanol|2-Methyl-2-butanol|Ethylurea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0006007|HMDB0013036|HMDB0255527|HMDB0031599|HMDB0033777|HMDB0031527|HMDB0303831|HMDB0033772|HMDB0252088</t>
   </si>
   <si>
     <t xml:space="preserve">C6H14O</t>
   </si>
   <si>
-    <t xml:space="preserve">4-Methyl-2-pentanol|(±)-3-Methyl-1-pentanol|2-Hexanol|2-Methylpentan-3-ol|Isohexanol|3-methyl-2-pentanol|3,3-Dimethyl-2-butanol|3-Hexanol|3-Methylpentan-3-ol|2-Methylpentan-2-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0246515|HMDB0033676|HMDB0061886|HMDB0302390|HMDB0059889|HMDB0062726|HMDB0245993|HMDB0031493|HMDB0302446|HMDB0302442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Methylpentan-2-ol|3-Methylpentan-3-ol|3,3-Dimethyl-2-butanol|4-Methyl-2-pentanol|(±)-3-Methyl-1-pentanol|2-Hexanol|2-Methylpentan-3-ol|Isohexanol|3-methyl-2-pentanol|3-Hexanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0302442|HMDB0302446|HMDB0245993|HMDB0246515|HMDB0033676|HMDB0061886|HMDB0302390|HMDB0059889|HMDB0062726|HMDB0031493</t>
+    <t xml:space="preserve">1-Hexanol|4-Methyl-2-pentanol|3-methyl-2-pentanol|3-Hexanol|2-Hexanol|(±)-3-Methyl-1-pentanol|Isohexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0012971|HMDB0246515|HMDB0062726|HMDB0031493|HMDB0061886|HMDB0033676|HMDB0059889|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Methylpentan-3-ol|3,3-Dimethyl-2-butanol|2-Methylpentan-2-ol|2-Methylpentan-3-ol|1-Hexanol|4-Methyl-2-pentanol|3-methyl-2-pentanol|3-Hexanol|2-Hexanol|(±)-3-Methyl-1-pentanol|Isohexanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0302446|HMDB0245993|HMDB0302442|HMDB0302390|HMDB0012971|HMDB0246515|HMDB0062726|HMDB0031493|HMDB0061886|HMDB0033676|HMDB0059889</t>
   </si>
   <si>
     <t xml:space="preserve">C4H8N2O2|C6H12O2</t>
   </si>
   <si>
-    <t xml:space="preserve">N,N'-Diacetylhydrazine|N-Nitroso-3-hydroxypyrrolidine|1,2-Cyclohexanediol|Diacetone alcohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0060496|HMDB0061163|HMDB0244061|HMDB0031511</t>
+    <t xml:space="preserve">N-Nitroso-3-hydroxypyrrolidine|1,2-Cyclohexanediol|N,N'-Diacetylhydrazine|Diacetone alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0061163|HMDB0244061|HMDB0060496|HMDB0031511</t>
   </si>
   <si>
     <t xml:space="preserve">C7H16O</t>
   </si>
   <si>
-    <t xml:space="preserve">xi-3-Heptanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4H10N2O2|C6H14O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Ethyl-N-(2-hydroxyethyl)nitrosamine|2-Methyl-1,3-pentanediol|4-Methyl-1,2-dihydroxypentane|2-Butoxyethanol|1-Isopropoxy-2-propanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0244541|HMDB0245212|HMDB0059740|HMDB0031327|HMDB0243911</t>
+    <t xml:space="preserve">1-Heptanol|xi-3-Heptanol|(±)-2-Heptanol|4-methyl-1-hexanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0031479|HMDB0031481|HMDB0033908|HMDB0303837</t>
   </si>
   <si>
     <t xml:space="preserve">C6H14O2|C4H10N2O2</t>
   </si>
   <si>
-    <t xml:space="preserve">1-Isopropoxy-2-propanol|2-Butoxyethanol|4-Methyl-1,2-dihydroxypentane|2-Methyl-1,3-pentanediol|N-Ethyl-N-(2-hydroxyethyl)nitrosamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0243911|HMDB0031327|HMDB0059740|HMDB0245212|HMDB0244541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H6N2O|C8H10O|C4H10O4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picolinamide|2-Phenylethanol|4-Methylbenzyl alcohol|1-Phenylethanol|Erythritol|D-Threitol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0256533|HMDB0033944|HMDB0041609|HMDB0032619|HMDB0002994|HMDB0004136</t>
+    <t xml:space="preserve">(±)-1,5-Hexanediol|N-Ethyl-N-(2-hydroxyethyl)nitrosamine|2-Methyl-1,3-pentanediol|Hexanediol|4-Methyl-1,2-dihydroxypentane|1-Isopropoxy-2-propanol|2-Butoxyethanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0031490|HMDB0244541|HMDB0245212|HMDB0253145|HMDB0059740|HMDB0243911|HMDB0031327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Butoxyethanol|1-Isopropoxy-2-propanol|4-Methyl-1,2-dihydroxypentane|Hexanediol|2-Methyl-1,3-pentanediol|N-Ethyl-N-(2-hydroxyethyl)nitrosamine|(±)-1,5-Hexanediol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0031327|HMDB0243911|HMDB0059740|HMDB0253145|HMDB0245212|HMDB0244541|HMDB0031490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8H10O|C6H6N2O|C4H10O4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Phenylethanol|Picolinamide|4-Methylbenzyl alcohol|1-Phenylethanol|Erythritol|D-Threitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0033944|HMDB0256533|HMDB0041609|HMDB0032619|HMDB0002994|HMDB0004136</t>
   </si>
   <si>
     <t xml:space="preserve">C6H8O3|C3H3F3O2|C4H4N2O3</t>
   </si>
   <si>
-    <t xml:space="preserve">Osmundalactone|L-erythro-5-(1-Hydroxyethyl)-2(5H)-furanone|(±)-Furaneol|2-Ethyl-3,4-dihydroxyfuran|1,1,1-Trifluoro-3-hydroxypropan-2-one|3-Hydroxy-4,5-dimethyl-2(5H)-furanone|Barbituric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031303|HMDB0033285|HMDB0040594|HMDB0031847|HMDB0245298|HMDB0031306|HMDB0041833</t>
+    <t xml:space="preserve">(±)-Furaneol|3-Hydroxy-4,5-dimethyl-2(5H)-furanone|2-Ethyl-3,4-dihydroxyfuran|Osmundalactone|L-erythro-5-(1-Hydroxyethyl)-2(5H)-furanone|1,1,1-Trifluoro-3-hydroxypropan-2-one|Barbituric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0040594|HMDB0031306|HMDB0031847|HMDB0031303|HMDB0033285|HMDB0245298|HMDB0041833</t>
   </si>
   <si>
     <t xml:space="preserve">C8H18O|C6H14N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">2,3,4-Trimethyl-3-pentanol|2,4,4-Trimethyl-2-pentanol|2-Propyl-1-pentanol|2-Ethyl-4-methyl-1-pentanol|(S)-3-Ethyl-4-methylpentanol|N-(2-Hydroxyethyl)piperazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0036166|HMDB0245471|HMDB0094707|HMDB0013818|HMDB0059859|HMDB0254989</t>
+    <t xml:space="preserve">Octanol|(S)-3-Octanol|(±)-2-Octanol|4-Methyl-2-heptanol|xi-2-Ethyl-1-hexanol|2-Propyl-1-pentanol|2-Ethyl-4-methyl-1-pentanol|(2xi,4xi)-2,4-Dimethyl-1-hexanol|(S)-3-Ethyl-4-methylpentanol|2,4,4-Trimethyl-2-pentanol|2,3,4-Trimethyl-3-pentanol|N-(2-Hydroxyethyl)piperazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0001183|HMDB0030070|HMDB0034261|HMDB0031589|HMDB0031231|HMDB0094707|HMDB0013818|HMDB0037791|HMDB0059859|HMDB0245471|HMDB0036166|HMDB0254989</t>
   </si>
   <si>
     <t xml:space="preserve">C7H16O2</t>
@@ -185,94 +182,94 @@
     <t xml:space="preserve">HMDB0246037</t>
   </si>
   <si>
-    <t xml:space="preserve">C9H12O|C7H8N2O|C5H12O4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Phenyl-1-propanol|Benzohydrazide|2-Phenyl-1-propanol|(R)-2-Phenyl-1-propanol|3-Aminobenzamide|1-Phenyl-1-propanol|(±)-1-(4-Methylphenyl)ethanol|2-Methylerythritol|2-C-Methyl-D-erythritol|1-Deoxy-D-ribitol|3-Deoxy-D-arabinitol|2-Deoxy-D-ribitol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0033962|HMDB0249018|HMDB0031628|HMDB0303917|HMDB0245814|HMDB0031627|HMDB0034378|HMDB0011659|HMDB0245046|HMDB0041486|HMDB0031201|HMDB0033919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8H12NO|C8H10O2|C5H6N4O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenylethanolaminium|styrene glycol (1-phenyl 1,2-ethanediol)|2-Phenoxyethanol|Tyrosol|8-Hydroxypurine|4-Methoxybenzyl alcohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0062626|HMDB0303891|HMDB0041607|HMDB0004284|HMDB0012182|HMDB0034241</t>
+    <t xml:space="preserve">C7H8N2O|C9H12O|C5H12O4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2-Diacylglycerol-Bile-PC-pool|3-Phenyl-1-propanol|2-Phenyl-1-propanol|(R)-2-Phenyl-1-propanol|Benzohydrazide|3-Aminobenzamide|(±)-1-(4-Methylphenyl)ethanol|1-Phenyl-1-propanol|1-Deoxy-D-ribitol|2-Methylerythritol|2-C-Methyl-D-erythritol|2-Deoxy-D-ribitol|3-Deoxy-D-arabinitol|1,2-Diacylglycerol-LD-PE-pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0062267|HMDB0033962|HMDB0031628|HMDB0303917|HMDB0249018|HMDB0245814|HMDB0034378|HMDB0031627|HMDB0041486|HMDB0011659|HMDB0245046|HMDB0033919|HMDB0031201|HMDB0062269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8H10O2|C8H12NO|C5H6N4O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Phenoxyethanol|styrene glycol (1-phenyl 1,2-ethanediol)|4-Methoxybenzyl alcohol|Phenylethanolaminium|8-Hydroxypurine|Tyrosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0041607|HMDB0303891|HMDB0034241|HMDB0062626|HMDB0012182|HMDB0004284</t>
   </si>
   <si>
     <t xml:space="preserve">C9H18O</t>
   </si>
   <si>
-    <t xml:space="preserve">Dihydroisophorol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0029557</t>
+    <t xml:space="preserve">(Z)-3-Nonen-1-ol|(E)-3-Nonen-1-ol|(Z)-6-Nonen-1-ol|(E)-6-Nonenol|Dihydroisophorol|2-Nonen-1-ol|(Z)-2-Nonen-1-ol|1-Nonen-3-ol|(±)-2,6-Dimethyl-6-hepten-1-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0030959|HMDB0041601|HMDB0040581|HMDB0059887|HMDB0029557|HMDB0041498|HMDB0041499|HMDB0034152|HMDB0037304</t>
   </si>
   <si>
     <t xml:space="preserve">C9H20O|C7H16N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">2-Octanol, 2-methyl-|Diisobutylcarbinol|4-(Aminomethyl)-1-methylpiperidin-4-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0245214|HMDB0031153|HMDB0246299</t>
+    <t xml:space="preserve">1-Nonanol|3-Nonanol|2-Nonanol|Diisobutylcarbinol|2-Octanol, 2-methyl-|4-Methyloctan-1-ol|(±)-3,5,5-Trimethyl-1-hexanol|4-(Aminomethyl)-1-methylpiperidin-4-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0031265|HMDB0031732|HMDB0033916|HMDB0031153|HMDB0245214|HMDB0246514|HMDB0031198|HMDB0246299</t>
   </si>
   <si>
     <t xml:space="preserve">C10H14O|C8H10N2O|C6H14O4</t>
   </si>
   <si>
-    <t xml:space="preserve">4-Phenyl-2-butanol|2-Methyl-1-phenyl-2-propanol|1-Acetyl-2-phenylhydrazine|2-(4-Methylphenyl)-2-propanol|TRIETHYLENE GLYCOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031613|HMDB0031570|HMDB0243811|HMDB0029652|HMDB0259193</t>
+    <t xml:space="preserve">Cuminyl alcohol|4,6-Decadiyn-1-ol|2-(4-Methylphenyl)-1-propanol|1-Acetyl-2-phenylhydrazine|4-Phenyl-2-butanol|2-(4-Methylphenyl)-2-propanol|2-Methyl-1-phenyl-2-propanol|TRIETHYLENE GLYCOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0031817|HMDB0038913|HMDB0034846|HMDB0243811|HMDB0031613|HMDB0029652|HMDB0031570|HMDB0259193</t>
   </si>
   <si>
     <t xml:space="preserve">C10H22O</t>
   </si>
   <si>
-    <t xml:space="preserve">3,7-Dimethyl-3-octanol|3,6-Dimethyl-3-octanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0035246|HMDB0246078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8H14O5|C11H14N2O|C6H10N2O5|C7H14N2O4|C6H14N4O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Hydroxysuberic acid|Diethyl L-malate|beta-Amino-1H-indole-3-propanol|N-carbamoylglutamic Acid|Alanylthreonine|Threonylalanine|2-Amino-4-[(2-hydroxy-1-oxopropyl)amino]butanoic acid|N-(gamma-Glutamyl)ethanolamine|Alline|L-erythro-4-Hydroxyarginine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0000325|HMDB0040220|HMDB0244977|HMDB0062795|HMDB0028697|HMDB0029054|HMDB0031412|HMDB0039222|HMDB0030533|HMDB0034326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8H16N2O4|C11H12N2O2|C7H12N2O5|C13H16O2|C7H16N4O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-(3-Amino-2-hydroxy-3-oxopropyl)-L-valine|Serylvaline|Valylserine|3-Hydroxymethylantipyrine|Alanyl-Aspartic acid|S-nirvanol|N6-Acetyl-5S-hydroxy-L-lysine|3,4-Dihydroxy-2-hydroxymethyl-1-pyrrolidinepropanamide|1-Hydroxycyclohexyl phenyl ketone|(+)-gamma-Hydroxy-L-homoarginine|6-(1-Hydroxyethyl)-2,2-dimethyl-2H-1-benzopyran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0245695|HMDB0029052|HMDB0029136|HMDB0013840|HMDB0304774|HMDB0060967|HMDB0033891|HMDB0039948|HMDB0247678|HMDB0301838|HMDB0031553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17H26N2O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-hydroxyropivacaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0060962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19H26O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11b-Hydroxyandrost-4-ene-3,17-dione|Yucalexin B'11|2-Hydroxyestradiol-3-methyl ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0006773|HMDB0036696|HMDB0000380</t>
+    <t xml:space="preserve">Decyl alcohol|3-Decanol|Decan-2-ol|3,6-Dimethyl-3-octanol|3,7-Dimethyl-3-octanol|(R)-Dihydrocitronellol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0011624|HMDB0031408|HMDB0303078|HMDB0246078|HMDB0035246|HMDB0035411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8H14O5|C11H14N2O|C11H10O3|C6H10N2O5|C7H14N2O4|C6H14N4O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diethyl L-malate|beta-Amino-1H-indole-3-propanol|3-Hydroxysuberic acid|6-(2-Hydroxyethoxy)-6-oxohexanoic acid|Methyl (Z,Z)-10-hydroxy-2,8-decadiene-4,6-diynoate|N-carbamoylglutamic Acid|Threonylalanine|Alanylthreonine|2-Amino-4-[(2-hydroxy-1-oxopropyl)amino]butanoic acid|Alline|N-(gamma-Glutamyl)ethanolamine|L-erythro-4-Hydroxyarginine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0040220|HMDB0244977|HMDB0000325|HMDB0061681|HMDB0039359|HMDB0062795|HMDB0029054|HMDB0028697|HMDB0031412|HMDB0030533|HMDB0039222|HMDB0034326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9H16O5|C8H16N2O4|C7H12N2O5|C11H12N2O2|C13H16O2|C7H16N4O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Hydroxyglutaric acid diethyl ester|N-(3-Amino-2-hydroxy-3-oxopropyl)-L-valine|Serylvaline|Valylserine|Alanyl-Aspartic acid|S-nirvanol|3-Hydroxymethylantipyrine|N6-Acetyl-5S-hydroxy-L-lysine|3,4-Dihydroxy-2-hydroxymethyl-1-pyrrolidinepropanamide|1-Hydroxycyclohexyl phenyl ketone|(+)-gamma-Hydroxy-L-homoarginine|6-(1-Hydroxyethyl)-2,2-dimethyl-2H-1-benzopyran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0303910|HMDB0245695|HMDB0029052|HMDB0029136|HMDB0304774|HMDB0060967|HMDB0013840|HMDB0033891|HMDB0039948|HMDB0247678|HMDB0301838|HMDB0031553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19H30O2|C17H26N2O2|C15H30O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dihydrotestosterone|5b-Dihydrotestosterone|5beta-Dihydroepitestosterone|(17beta)-17-Hydroxyandrostan-3-one|5-Androstenediol|4-Androstene-3,17-diol|4-Androstenediol|Androst-5-ene-3beta,17beta-diol|Androstendiol|Androsterone|Epiandrosterone|Etiocholanolone|Epietiocholanolone|3-alpha-hydroxy-5-beta-androstan-17-one|(8R,9R,10R,13S,14S)-10,13-Dimethyl-4,5,6,7,8,9,11,12,14,15,16,17-dodecahydro-3H-cyclopenta[a]phenanthrene-3,17-diol|3-hydroxyropivacaine|Glycerol 1-(5-hydroxydodecanoate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0002961|HMDB0006770|HMDB0062608|HMDB0243561|HMDB0003818|HMDB0246370|HMDB0005849|HMDB0244754|HMDB0248415|HMDB0000031|HMDB0000365|HMDB0000490|HMDB0000546|HMDB0245800|HMDB0257771|HMDB0060962|HMDB0040168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19H26O3|C15H26O6|C16H30O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Keto-dehydroepiandrosterone|19-Oxotestosterone|(8S,9R,10R,13S,14S)-11-Hydroxy-10,13-dimethyl-5,6,7,8,9,11,12,14,15,16-decahydro-4H-cyclopenta[a]phenanthrene-3,17-dione|7a-Hydroxyandrost-4-ene-3,17-dione|16a-Hydroxyandrost-4-ene-3,17-dione|11b-Hydroxyandrost-4-ene-3,17-dione|(8R,9R,10S,11S,13R,14R)-11-Hydroxy-10,13-dimethyl-2,6,7,8,9,11,12,14,15,16-decahydro-1H-cyclopenta[a]phenanthrene-3,17-dione|11-Ketotestosterone|(8R,9S,10R,13S,14S,17S)-17-Hydroxy-10,13-dimethyl-6,7,8,9,11,12,14,15,16,17-decahydro-1H-cyclopenta[a]phenanthrene-2,3-dione|Yucalexin B'11|tributyrylglycerol|19-Hydroxyandrost-4-ene-3,17-dione|xi-8-Hydroxyhexadecanedioic acid|xi-7-Hydroxyhexadecanedioic acid|4-Androsten-4-ol-3,17-dione|EPIMESTROL|Falcarindiol 3-acetate|(2Z,8S,9Z)-2,9-Heptadecadiene-8-hydroxy-4,6-diyne-1-yl acetate|2-Hydroxyestradiol-3-methyl ether|4-Methoxy-17beta-estradiol|4-Methoxy-17alpha-estradiol|2-Methoxyestradiol|2-Methoxy-17alpha-estradiol|(8R,9S,13S,14S,17S)-13-Methyl-3-methylperoxy-6,7,8,9,11,12,14,15,16,17-decahydrocyclopenta[a]phenanthren-17-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0247266|HMDB0003959|HMDB0258073|HMDB0006771|HMDB0006774|HMDB0006773|HMDB0244360|HMDB0244364|HMDB0260174|HMDB0036696|HMDB0259168|HMDB0003955|HMDB0037831|HMDB0037830|HMDB0242733|HMDB0251855|HMDB0034167|HMDB0031038|HMDB0000380|HMDB0012782|HMDB0246490|HMDB0000405|HMDB0245198|HMDB0257882</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1079,7 @@
         <v>602.208</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1091,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
         <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
       </c>
       <c r="H11" t="n">
         <v>45597.5436710889</v>
@@ -1129,19 +1126,19 @@
         <v>464.55499999998</v>
       </c>
       <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
       </c>
       <c r="H12" t="n">
         <v>140187.475182336</v>
@@ -1217,19 +1214,19 @@
         <v>448.90699999998</v>
       </c>
       <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
       </c>
       <c r="H14" t="n">
         <v>316802.859465598</v>
@@ -1264,19 +1261,19 @@
         <v>565.92199999998</v>
       </c>
       <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>52</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
       </c>
       <c r="H15" t="n">
         <v>216158.773526611</v>
@@ -1311,19 +1308,19 @@
         <v>366.063</v>
       </c>
       <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>56</v>
       </c>
       <c r="H16" t="n">
         <v>287069.460433954</v>
@@ -1358,7 +1355,7 @@
         <v>615.85399999998</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1367,10 +1364,10 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
       </c>
       <c r="H17" t="n">
         <v>46658.7984883484</v>
@@ -1405,19 +1402,19 @@
         <v>503.09200000002</v>
       </c>
       <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>58</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
       </c>
       <c r="H18" t="n">
         <v>142740.709600554</v>
@@ -1452,19 +1449,19 @@
         <v>460.836</v>
       </c>
       <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
       </c>
       <c r="H19" t="n">
         <v>215185.652452613</v>
@@ -1499,19 +1496,19 @@
         <v>555.40000000002</v>
       </c>
       <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>64</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
       </c>
       <c r="H20" t="n">
         <v>97389.4519478447</v>
@@ -1546,19 +1543,19 @@
         <v>581.967</v>
       </c>
       <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>66</v>
       </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
       </c>
       <c r="H21" t="n">
         <v>41645.2640247912</v>
@@ -1593,19 +1590,19 @@
         <v>521.877</v>
       </c>
       <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>70</v>
-      </c>
-      <c r="G22" t="s">
-        <v>71</v>
       </c>
       <c r="H22" t="n">
         <v>397588.55336798</v>
@@ -1640,19 +1637,19 @@
         <v>603.696</v>
       </c>
       <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>73</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
       </c>
       <c r="H23" t="n">
         <v>69585.353169016</v>
@@ -1687,7 +1684,7 @@
         <v>376.47199999998</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -1696,10 +1693,10 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
         <v>76</v>
-      </c>
-      <c r="G24" t="s">
-        <v>77</v>
       </c>
       <c r="H24" t="n">
         <v>9881.65306353523</v>
@@ -1734,7 +1731,7 @@
         <v>396.33400000002</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -1743,10 +1740,10 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s">
         <v>79</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
       </c>
       <c r="H25" t="n">
         <v>12041.1710124206</v>
@@ -1781,19 +1778,19 @@
         <v>543.26500000002</v>
       </c>
       <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
         <v>81</v>
       </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>82</v>
-      </c>
-      <c r="G26" t="s">
-        <v>83</v>
       </c>
       <c r="H26" t="n">
         <v>9426.97106482596</v>
@@ -1828,19 +1825,19 @@
         <v>499.338</v>
       </c>
       <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>84</v>
       </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>85</v>
-      </c>
-      <c r="G27" t="s">
-        <v>86</v>
       </c>
       <c r="H27" t="n">
         <v>5440.23937982001</v>
